--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_4.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,43 +488,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7/A', 'A:min', 'D:min/A', 'A:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(51.62, 63.9)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(25.26, 36.1)]</t>
+          <t>[('0:00:08.300000', '0:00:12.960000'), ('0:00:00.780000', '0:00:05.260000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:14.800000', '0:01:21.060000'), ('0:00:13.420000', '0:00:19.500000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
@@ -528,133 +538,144 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(120.4, 127.2)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(107.1, 111.48)]</t>
+          <t>[('0:01:16.560000', '0:01:34.120000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'G:min7/A#']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(4.511043, 10.664331)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(69.06, 72.5)]</t>
+          <t>[('0:01:24', '0:01:30.840000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(9.48, 25.94)]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(3.1, 7.72)]</t>
+          <t>[('0:03:53.340000', '0:04:09.140000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+          <t>[('0:00:18.660000', '0:00:21.840000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -663,542 +684,496 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:00:00.360000', '0:00:07.140000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(3.7, 7.5)]</t>
+          <t>[['D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:00:38.841000', '0:00:47.891000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:49.280000', '0:01:04.980000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(4.16, 8.8)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(10.12, 27.18)]</t>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(70.98, 87.2)]</t>
+          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:25.720000', '0:00:45.260000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6257352941176471</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj']]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(31.6, 33.8)]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(38.9, 44.36)]</t>
+          <t>[('0:01:57.952131', '0:02:31.098616')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:02:00.541156', '0:02:23.041292')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1402173913043478</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(17.9, 20.08)]</t>
+          <t>[('0:01:03.380000', '0:01:05.720000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:07.640000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1483870967741935</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(10.88, 16.76)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:00:09.780000', '0:00:14.360000'), ('0:00:01.540000', '0:00:06.680000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:23.100000', '0:01:30.020000'), ('0:00:13.500000', '0:00:21.900000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(7.9, 17.86)]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(61.3, 70.46)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(68.64, 83.84)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(16.24, 21.16)]</t>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(16.24, 21.16)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(63.2, 73.12)]</t>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_238</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09855072463768116</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:dim7', 'C', 'F']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C#:dim7', 'D:maj', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(17.769637, 22.996281)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(16.42, 19.36)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.240000', '0:00:15.940000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
